--- a/WHO-DATA-SETS/ExcelDataSets/20200213-sitrep-24-covid-19.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200213-sitrep-24-covid-19.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F048965-2BFE-4D94-AD6D-28D9CCDAD61F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D689657-10DF-4351-A0BA-A9106071E781}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
-    <sheet name="Table 3" sheetId="3" r:id="rId2"/>
-    <sheet name="Table 4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1565,7 +1563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1638,15 +1636,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1684,13 +1673,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1751,9 +1737,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1778,9 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1793,9 +1773,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
     </xf>
@@ -1808,9 +1785,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1820,20 +1794,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1841,8 +1803,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1850,16 +1812,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -1877,69 +1836,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1491233</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1829435" cy="6985"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1829435" cy="6985"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="1829435" h="6985">
-              <a:moveTo>
-                <a:pt x="1829054" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="6858"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1829054" y="6858"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1829054" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,1242 +2159,1072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="408.95" customHeight="1">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5" ht="5.25" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.2" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A5" s="6">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C2" s="7">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D2" s="8">
         <v>43871</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="11">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C3" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D3" s="13">
         <v>43872</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A7" s="16">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C4" s="17">
         <v>9</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D4" s="18">
         <v>43872</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="11">
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C5" s="12">
         <v>9</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D5" s="13">
         <v>43869</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25">
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22">
+        <v>5917</v>
+      </c>
+      <c r="C8" s="22">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="23">
+        <v>11346</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24">
+        <v>5737</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23">
+        <v>9605</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24">
+        <v>6899</v>
+      </c>
+      <c r="C12" s="24">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="23">
+        <v>6324</v>
+      </c>
+      <c r="C13" s="23">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24">
+        <v>4648</v>
+      </c>
+      <c r="C14" s="24">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="23">
+        <v>8051</v>
+      </c>
+      <c r="C15" s="23">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24">
+        <v>3102</v>
+      </c>
+      <c r="C16" s="24">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="23">
+        <v>10047</v>
+      </c>
+      <c r="C17" s="23">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="24">
+        <v>8341</v>
+      </c>
+      <c r="C18" s="24">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="23">
+        <v>3773</v>
+      </c>
+      <c r="C19" s="23">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="24">
+        <v>2154</v>
+      </c>
+      <c r="C20" s="24">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="23">
+        <v>2424</v>
+      </c>
+      <c r="C21" s="23">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="24">
+        <v>3941</v>
+      </c>
+      <c r="C22" s="24">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="23">
+        <v>7556</v>
+      </c>
+      <c r="C23" s="23">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="24">
+        <v>3864</v>
+      </c>
+      <c r="C24" s="24">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="23">
+        <v>4926</v>
+      </c>
+      <c r="C25" s="23">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="24">
+        <v>4830</v>
+      </c>
+      <c r="C26" s="24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="23">
+        <v>934</v>
+      </c>
+      <c r="C27" s="23">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="24">
+        <v>3718</v>
+      </c>
+      <c r="C28" s="24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="23">
+        <v>3600</v>
+      </c>
+      <c r="C29" s="23">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="24">
+        <v>4359</v>
+      </c>
+      <c r="C30" s="24">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="23">
+        <v>1560</v>
+      </c>
+      <c r="C31" s="23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="24">
+        <v>2637</v>
+      </c>
+      <c r="C32" s="24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2704</v>
+      </c>
+      <c r="C33" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="24">
+        <v>2534</v>
+      </c>
+      <c r="C34" s="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="23">
+        <v>2487</v>
+      </c>
+      <c r="C35" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15">
+      <c r="A36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="24">
+        <v>688</v>
+      </c>
+      <c r="C36" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15">
+      <c r="A37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="23">
+        <v>745</v>
+      </c>
+      <c r="C37" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="24">
+        <v>603</v>
+      </c>
+      <c r="C38" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="23">
+        <v>2359</v>
+      </c>
+      <c r="C39" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="24">
+        <v>66</v>
+      </c>
+      <c r="C40" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="23">
+        <v>344</v>
+      </c>
+      <c r="C41" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="24">
+        <v>142823</v>
+      </c>
+      <c r="C42" s="24">
+        <v>46550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="107.25">
+      <c r="A43" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.25">
+      <c r="A44" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="41"/>
+      <c r="B45" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="41"/>
+      <c r="B46" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="41"/>
+      <c r="B47" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="41"/>
+      <c r="B48" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="41"/>
+      <c r="B49" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="41"/>
+      <c r="B50" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="41"/>
+      <c r="B51" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="42"/>
+      <c r="B52" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="44"/>
+      <c r="B54" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="44"/>
+      <c r="B55" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="45"/>
+      <c r="B56" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="45"/>
+      <c r="B58" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
+      <c r="A59" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15">
+      <c r="A60" s="47"/>
+      <c r="B60" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="47"/>
+      <c r="B61" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="47"/>
+      <c r="B62" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15">
+      <c r="A63" s="47"/>
+      <c r="B63" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15">
+      <c r="A64" s="47"/>
+      <c r="B64" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15">
+      <c r="A65" s="47"/>
+      <c r="B65" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15">
+      <c r="A66" s="47"/>
+      <c r="B66" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15">
+      <c r="A67" s="48"/>
+      <c r="B67" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30">
+      <c r="A68" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15">
+      <c r="A69" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="107.1" customHeight="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24">
-        <v>5917</v>
-      </c>
-      <c r="C3" s="24">
-        <v>34874</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25">
-        <v>11346</v>
-      </c>
-      <c r="C4" s="25">
-        <v>1241</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="26">
-        <v>5737</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1145</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25">
-        <v>9605</v>
-      </c>
-      <c r="C6" s="25">
-        <v>1169</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="26">
-        <v>6899</v>
-      </c>
-      <c r="C7" s="26">
-        <v>968</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="25">
-        <v>6324</v>
-      </c>
-      <c r="C8" s="25">
-        <v>910</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="26">
-        <v>4648</v>
-      </c>
-      <c r="C9" s="26">
-        <v>872</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="25">
-        <v>8051</v>
-      </c>
-      <c r="C10" s="25">
-        <v>570</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="26">
-        <v>3102</v>
-      </c>
-      <c r="C11" s="26">
-        <v>518</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="25">
-        <v>10047</v>
-      </c>
-      <c r="C12" s="25">
-        <v>506</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="26">
-        <v>8341</v>
-      </c>
-      <c r="C13" s="26">
-        <v>451</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="25">
-        <v>3773</v>
-      </c>
-      <c r="C14" s="25">
-        <v>395</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="26">
-        <v>2154</v>
-      </c>
-      <c r="C15" s="26">
-        <v>366</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="25">
-        <v>2424</v>
-      </c>
-      <c r="C16" s="25">
-        <v>313</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="26">
-        <v>3941</v>
-      </c>
-      <c r="C17" s="26">
-        <v>279</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="25">
-        <v>7556</v>
-      </c>
-      <c r="C18" s="25">
-        <v>265</v>
-      </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="26">
-        <v>3864</v>
-      </c>
-      <c r="C19" s="26">
-        <v>229</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="25">
-        <v>4926</v>
-      </c>
-      <c r="C20" s="25">
-        <v>222</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="26">
-        <v>4830</v>
-      </c>
-      <c r="C21" s="26">
-        <v>155</v>
-      </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="25">
-        <v>934</v>
-      </c>
-      <c r="C22" s="25">
-        <v>157</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="26">
-        <v>3718</v>
-      </c>
-      <c r="C23" s="26">
-        <v>126</v>
-      </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="25">
-        <v>3600</v>
-      </c>
-      <c r="C24" s="25">
-        <v>135</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="26">
-        <v>4359</v>
-      </c>
-      <c r="C25" s="26">
-        <v>116</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="25">
-        <v>1560</v>
-      </c>
-      <c r="C26" s="25">
-        <v>112</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="26">
-        <v>2637</v>
-      </c>
-      <c r="C27" s="26">
-        <v>87</v>
-      </c>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="25">
-        <v>2704</v>
-      </c>
-      <c r="C28" s="25">
-        <v>84</v>
-      </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="26">
-        <v>2534</v>
-      </c>
-      <c r="C29" s="26">
-        <v>61</v>
-      </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="25">
-        <v>2487</v>
-      </c>
-      <c r="C30" s="25">
-        <v>63</v>
-      </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="26">
-        <v>688</v>
-      </c>
-      <c r="C31" s="26">
-        <v>64</v>
-      </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="25">
-        <v>745</v>
-      </c>
-      <c r="C32" s="25">
-        <v>50</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="26">
-        <v>603</v>
-      </c>
-      <c r="C33" s="26">
-        <v>18</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>2359</v>
-      </c>
-      <c r="C34" s="25">
-        <v>18</v>
-      </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="26">
-        <v>66</v>
-      </c>
-      <c r="C35" s="26">
-        <v>10</v>
-      </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="25">
-        <v>344</v>
-      </c>
-      <c r="C36" s="25">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A37" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="26">
-        <v>142823</v>
-      </c>
-      <c r="C37" s="26">
-        <v>46550</v>
-      </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="171.75" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="86.1" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" ht="81.95" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A27" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A28" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="1:8" ht="135" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A26"/>
+  <mergeCells count="4">
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200213-sitrep-24-covid-19.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200213-sitrep-24-covid-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D689657-10DF-4351-A0BA-A9106071E781}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE533393-4ECA-4F01-88A5-B53D0CBBC8C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1673,153 +1673,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2171,109 +2114,110 @@
     <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="7" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="14">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="16">
         <v>43871</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="19">
         <v>43872</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="20">
         <v>9</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="22">
         <v>43872</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="17">
         <v>9</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="19">
         <v>43869</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="13">
         <v>5917</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="13">
         <v>34874</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="23">
@@ -2284,7 +2228,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="24">
@@ -2295,7 +2239,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="23">
@@ -2306,7 +2250,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="24">
@@ -2317,7 +2261,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="23">
@@ -2328,7 +2272,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="24">
@@ -2339,7 +2283,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="23">
@@ -2350,7 +2294,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="24">
@@ -2361,7 +2305,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="23">
@@ -2372,7 +2316,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="24">
@@ -2383,7 +2327,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="23">
@@ -2394,7 +2338,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="24">
@@ -2405,7 +2349,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="23">
@@ -2416,7 +2360,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="24">
@@ -2427,7 +2371,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="23">
@@ -2438,7 +2382,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -2449,7 +2393,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="23">
@@ -2460,7 +2404,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="24">
@@ -2471,7 +2415,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="23">
@@ -2482,7 +2426,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="24">
@@ -2493,7 +2437,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="23">
@@ -2504,7 +2448,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="24">
@@ -2515,7 +2459,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="23">
@@ -2526,7 +2470,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="24">
@@ -2537,7 +2481,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="23">
@@ -2548,7 +2492,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="24">
@@ -2559,7 +2503,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="23">
@@ -2570,7 +2514,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="24">
@@ -2581,7 +2525,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="23">
@@ -2592,7 +2536,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="24">
@@ -2603,7 +2547,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="23">
@@ -2614,7 +2558,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="24">
@@ -2625,7 +2569,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="23">
@@ -2646,576 +2590,576 @@
         <v>46550</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="107.25">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:7" ht="62.25">
+      <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="41"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="33" t="s">
+      <c r="F45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="41"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="33" t="s">
+      <c r="F46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="33" t="s">
+      <c r="F48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="41"/>
-      <c r="B49" s="30" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="33" t="s">
+      <c r="F49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="41"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="33" t="s">
+      <c r="E50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="41"/>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="33" t="s">
+      <c r="E51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="33" t="s">
+      <c r="E52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="44"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="33" t="s">
+      <c r="E54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="44"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="33" t="s">
+      <c r="E55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="45"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="33" t="s">
+      <c r="E56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="36" t="s">
+      <c r="F57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15">
-      <c r="A58" s="45"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="31" t="s">
+      <c r="E58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="G58" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="33" t="s">
+      <c r="F59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="47"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="33" t="s">
+      <c r="F60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="47"/>
-      <c r="B61" s="30" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="33" t="s">
+      <c r="F61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15">
-      <c r="A62" s="47"/>
-      <c r="B62" s="30" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="33" t="s">
+      <c r="E62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15">
-      <c r="A63" s="47"/>
-      <c r="B63" s="30" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="33" t="s">
+      <c r="E63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15">
-      <c r="A64" s="47"/>
-      <c r="B64" s="30" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="34" t="s">
+      <c r="D64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="33" t="s">
+      <c r="F64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15">
-      <c r="A65" s="47"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="33" t="s">
+      <c r="E65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15">
-      <c r="A66" s="47"/>
-      <c r="B66" s="30" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="33" t="s">
+      <c r="E66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15">
-      <c r="A67" s="48"/>
-      <c r="B67" s="30" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="33" t="s">
+      <c r="E67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="F68" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G68" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="35" t="s">
+      <c r="D69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="9" t="s">
         <v>60</v>
       </c>
     </row>
